--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il15-Il2ra.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il15-Il2ra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,57 +531,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.23751509080227</v>
+        <v>5.542102</v>
       </c>
       <c r="H2">
-        <v>5.23751509080227</v>
+        <v>16.626306</v>
       </c>
       <c r="I2">
-        <v>0.2492087854179374</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="J2">
-        <v>0.2492087854179374</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.314889279232145</v>
+        <v>0.3410186666666666</v>
       </c>
       <c r="N2">
-        <v>0.314889279232145</v>
+        <v>1.023056</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.09626129549884992</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.09626129549884992</v>
       </c>
       <c r="Q2">
-        <v>1.649237351910209</v>
+        <v>1.889960234570667</v>
       </c>
       <c r="R2">
-        <v>1.649237351910209</v>
+        <v>17.009642111136</v>
       </c>
       <c r="S2">
-        <v>0.2492087854179374</v>
+        <v>0.02273525265941857</v>
       </c>
       <c r="T2">
-        <v>0.2492087854179374</v>
+        <v>0.02273525265941856</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.46672302469283</v>
+        <v>5.542102</v>
       </c>
       <c r="H3">
-        <v>3.46672302469283</v>
+        <v>16.626306</v>
       </c>
       <c r="I3">
-        <v>0.164951855867925</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="J3">
-        <v>0.164951855867925</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.314889279232145</v>
+        <v>0.1590416666666667</v>
       </c>
       <c r="N3">
-        <v>0.314889279232145</v>
+        <v>0.477125</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.04489360368825242</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.04489360368825242</v>
       </c>
       <c r="Q3">
-        <v>1.091633914543007</v>
+        <v>0.8814251389166666</v>
       </c>
       <c r="R3">
-        <v>1.091633914543007</v>
+        <v>7.93282625025</v>
       </c>
       <c r="S3">
-        <v>0.164951855867925</v>
+        <v>0.01060309252389418</v>
       </c>
       <c r="T3">
-        <v>0.164951855867925</v>
+        <v>0.01060309252389418</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.826771711127</v>
+        <v>5.542102</v>
       </c>
       <c r="H4">
-        <v>11.826771711127</v>
+        <v>16.626306</v>
       </c>
       <c r="I4">
-        <v>0.5627354503896455</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="J4">
-        <v>0.5627354503896455</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.314889279232145</v>
+        <v>0.4919726666666667</v>
       </c>
       <c r="N4">
-        <v>0.314889279232145</v>
+        <v>1.475918</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.1388719471173343</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.1388719471173343</v>
       </c>
       <c r="Q4">
-        <v>3.724123619759903</v>
+        <v>2.726562699878667</v>
       </c>
       <c r="R4">
-        <v>3.724123619759903</v>
+        <v>24.539064298908</v>
       </c>
       <c r="S4">
-        <v>0.5627354503896455</v>
+        <v>0.03279915139990746</v>
       </c>
       <c r="T4">
-        <v>0.5627354503896455</v>
+        <v>0.03279915139990747</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,799 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5.542102</v>
+      </c>
+      <c r="H5">
+        <v>16.626306</v>
+      </c>
+      <c r="I5">
+        <v>0.2361826998234217</v>
+      </c>
+      <c r="J5">
+        <v>0.2361826998234217</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>2.550602333333333</v>
+      </c>
+      <c r="N5">
+        <v>7.651807</v>
+      </c>
+      <c r="O5">
+        <v>0.7199731536955635</v>
+      </c>
+      <c r="P5">
+        <v>0.7199731536955634</v>
+      </c>
+      <c r="Q5">
+        <v>14.13569829277133</v>
+      </c>
+      <c r="R5">
+        <v>127.221284634942</v>
+      </c>
+      <c r="S5">
+        <v>0.1700452032402015</v>
+      </c>
+      <c r="T5">
+        <v>0.1700452032402015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.485565018516919</v>
-      </c>
-      <c r="H5">
-        <v>0.485565018516919</v>
-      </c>
-      <c r="I5">
-        <v>0.02310390832449212</v>
-      </c>
-      <c r="J5">
-        <v>0.02310390832449212</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.314889279232145</v>
-      </c>
-      <c r="N5">
-        <v>0.314889279232145</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.1528992187011358</v>
-      </c>
-      <c r="R5">
-        <v>0.1528992187011358</v>
-      </c>
-      <c r="S5">
-        <v>0.02310390832449212</v>
-      </c>
-      <c r="T5">
-        <v>0.02310390832449212</v>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.525638333333333</v>
+      </c>
+      <c r="H6">
+        <v>10.576915</v>
+      </c>
+      <c r="I6">
+        <v>0.1502489091986426</v>
+      </c>
+      <c r="J6">
+        <v>0.1502489091986426</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.3410186666666666</v>
+      </c>
+      <c r="N6">
+        <v>1.023056</v>
+      </c>
+      <c r="O6">
+        <v>0.09626129549884992</v>
+      </c>
+      <c r="P6">
+        <v>0.09626129549884992</v>
+      </c>
+      <c r="Q6">
+        <v>1.202308483582222</v>
+      </c>
+      <c r="R6">
+        <v>10.82077635224</v>
+      </c>
+      <c r="S6">
+        <v>0.0144631546467504</v>
+      </c>
+      <c r="T6">
+        <v>0.0144631546467504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.525638333333333</v>
+      </c>
+      <c r="H7">
+        <v>10.576915</v>
+      </c>
+      <c r="I7">
+        <v>0.1502489091986426</v>
+      </c>
+      <c r="J7">
+        <v>0.1502489091986426</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.1590416666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.477125</v>
+      </c>
+      <c r="O7">
+        <v>0.04489360368825242</v>
+      </c>
+      <c r="P7">
+        <v>0.04489360368825242</v>
+      </c>
+      <c r="Q7">
+        <v>0.5607233965972221</v>
+      </c>
+      <c r="R7">
+        <v>5.046510569375</v>
+      </c>
+      <c r="S7">
+        <v>0.006745214984156083</v>
+      </c>
+      <c r="T7">
+        <v>0.006745214984156083</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.525638333333333</v>
+      </c>
+      <c r="H8">
+        <v>10.576915</v>
+      </c>
+      <c r="I8">
+        <v>0.1502489091986426</v>
+      </c>
+      <c r="J8">
+        <v>0.1502489091986426</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.4919726666666667</v>
+      </c>
+      <c r="N8">
+        <v>1.475918</v>
+      </c>
+      <c r="O8">
+        <v>0.1388719471173343</v>
+      </c>
+      <c r="P8">
+        <v>0.1388719471173343</v>
+      </c>
+      <c r="Q8">
+        <v>1.734517692552222</v>
+      </c>
+      <c r="R8">
+        <v>15.61065923297</v>
+      </c>
+      <c r="S8">
+        <v>0.02086535857267106</v>
+      </c>
+      <c r="T8">
+        <v>0.02086535857267106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.525638333333333</v>
+      </c>
+      <c r="H9">
+        <v>10.576915</v>
+      </c>
+      <c r="I9">
+        <v>0.1502489091986426</v>
+      </c>
+      <c r="J9">
+        <v>0.1502489091986426</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>2.550602333333333</v>
+      </c>
+      <c r="N9">
+        <v>7.651807</v>
+      </c>
+      <c r="O9">
+        <v>0.7199731536955635</v>
+      </c>
+      <c r="P9">
+        <v>0.7199731536955634</v>
+      </c>
+      <c r="Q9">
+        <v>8.992501359489445</v>
+      </c>
+      <c r="R9">
+        <v>80.932512235405</v>
+      </c>
+      <c r="S9">
+        <v>0.1081751809950651</v>
+      </c>
+      <c r="T9">
+        <v>0.108175180995065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>13.07613666666666</v>
+      </c>
+      <c r="H10">
+        <v>39.22841</v>
+      </c>
+      <c r="I10">
+        <v>0.5572537750466107</v>
+      </c>
+      <c r="J10">
+        <v>0.5572537750466107</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.3410186666666666</v>
+      </c>
+      <c r="N10">
+        <v>1.023056</v>
+      </c>
+      <c r="O10">
+        <v>0.09626129549884992</v>
+      </c>
+      <c r="P10">
+        <v>0.09626129549884992</v>
+      </c>
+      <c r="Q10">
+        <v>4.459206691217777</v>
+      </c>
+      <c r="R10">
+        <v>40.13286022096</v>
+      </c>
+      <c r="S10">
+        <v>0.05364197030761143</v>
+      </c>
+      <c r="T10">
+        <v>0.05364197030761143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>13.07613666666666</v>
+      </c>
+      <c r="H11">
+        <v>39.22841</v>
+      </c>
+      <c r="I11">
+        <v>0.5572537750466107</v>
+      </c>
+      <c r="J11">
+        <v>0.5572537750466107</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1590416666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.477125</v>
+      </c>
+      <c r="O11">
+        <v>0.04489360368825242</v>
+      </c>
+      <c r="P11">
+        <v>0.04489360368825242</v>
+      </c>
+      <c r="Q11">
+        <v>2.079650569027777</v>
+      </c>
+      <c r="R11">
+        <v>18.71685512125</v>
+      </c>
+      <c r="S11">
+        <v>0.0250171301307251</v>
+      </c>
+      <c r="T11">
+        <v>0.02501713013072511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>13.07613666666666</v>
+      </c>
+      <c r="H12">
+        <v>39.22841</v>
+      </c>
+      <c r="I12">
+        <v>0.5572537750466107</v>
+      </c>
+      <c r="J12">
+        <v>0.5572537750466107</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.4919726666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.475918</v>
+      </c>
+      <c r="O12">
+        <v>0.1388719471173343</v>
+      </c>
+      <c r="P12">
+        <v>0.1388719471173343</v>
+      </c>
+      <c r="Q12">
+        <v>6.433101825597777</v>
+      </c>
+      <c r="R12">
+        <v>57.89791643038</v>
+      </c>
+      <c r="S12">
+        <v>0.07738691677920782</v>
+      </c>
+      <c r="T12">
+        <v>0.07738691677920784</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>13.07613666666666</v>
+      </c>
+      <c r="H13">
+        <v>39.22841</v>
+      </c>
+      <c r="I13">
+        <v>0.5572537750466107</v>
+      </c>
+      <c r="J13">
+        <v>0.5572537750466107</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>2.550602333333333</v>
+      </c>
+      <c r="N13">
+        <v>7.651807</v>
+      </c>
+      <c r="O13">
+        <v>0.7199731536955635</v>
+      </c>
+      <c r="P13">
+        <v>0.7199731536955634</v>
+      </c>
+      <c r="Q13">
+        <v>33.35202469298555</v>
+      </c>
+      <c r="R13">
+        <v>300.16822223687</v>
+      </c>
+      <c r="S13">
+        <v>0.4012077578290664</v>
+      </c>
+      <c r="T13">
+        <v>0.4012077578290663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.321440333333333</v>
+      </c>
+      <c r="H14">
+        <v>3.964321</v>
+      </c>
+      <c r="I14">
+        <v>0.05631461593132515</v>
+      </c>
+      <c r="J14">
+        <v>0.05631461593132514</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.3410186666666666</v>
+      </c>
+      <c r="N14">
+        <v>1.023056</v>
+      </c>
+      <c r="O14">
+        <v>0.09626129549884992</v>
+      </c>
+      <c r="P14">
+        <v>0.09626129549884992</v>
+      </c>
+      <c r="Q14">
+        <v>0.4506358205528888</v>
+      </c>
+      <c r="R14">
+        <v>4.055722384976</v>
+      </c>
+      <c r="S14">
+        <v>0.005420917885069531</v>
+      </c>
+      <c r="T14">
+        <v>0.005420917885069531</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.321440333333333</v>
+      </c>
+      <c r="H15">
+        <v>3.964321</v>
+      </c>
+      <c r="I15">
+        <v>0.05631461593132515</v>
+      </c>
+      <c r="J15">
+        <v>0.05631461593132514</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.1590416666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.477125</v>
+      </c>
+      <c r="O15">
+        <v>0.04489360368825242</v>
+      </c>
+      <c r="P15">
+        <v>0.04489360368825242</v>
+      </c>
+      <c r="Q15">
+        <v>0.2101640730138888</v>
+      </c>
+      <c r="R15">
+        <v>1.891476657125</v>
+      </c>
+      <c r="S15">
+        <v>0.002528166049477057</v>
+      </c>
+      <c r="T15">
+        <v>0.002528166049477057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.321440333333333</v>
+      </c>
+      <c r="H16">
+        <v>3.964321</v>
+      </c>
+      <c r="I16">
+        <v>0.05631461593132515</v>
+      </c>
+      <c r="J16">
+        <v>0.05631461593132514</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.4919726666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.475918</v>
+      </c>
+      <c r="O16">
+        <v>0.1388719471173343</v>
+      </c>
+      <c r="P16">
+        <v>0.1388719471173343</v>
+      </c>
+      <c r="Q16">
+        <v>0.6501125246308888</v>
+      </c>
+      <c r="R16">
+        <v>5.851012721678</v>
+      </c>
+      <c r="S16">
+        <v>0.007820520365547978</v>
+      </c>
+      <c r="T16">
+        <v>0.007820520365547978</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.321440333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.964321</v>
+      </c>
+      <c r="I17">
+        <v>0.05631461593132515</v>
+      </c>
+      <c r="J17">
+        <v>0.05631461593132514</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>2.550602333333333</v>
+      </c>
+      <c r="N17">
+        <v>7.651807</v>
+      </c>
+      <c r="O17">
+        <v>0.7199731536955635</v>
+      </c>
+      <c r="P17">
+        <v>0.7199731536955634</v>
+      </c>
+      <c r="Q17">
+        <v>3.370468797560777</v>
+      </c>
+      <c r="R17">
+        <v>30.334219178047</v>
+      </c>
+      <c r="S17">
+        <v>0.04054501163123059</v>
+      </c>
+      <c r="T17">
+        <v>0.04054501163123057</v>
       </c>
     </row>
   </sheetData>
